--- a/test/slope_normalization/slope_normalization_test_output_wrong_range.xlsx
+++ b/test/slope_normalization/slope_normalization_test_output_wrong_range.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\test\slope_normalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4865B45C-4943-4719-A368-E5606E246928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CE9E66-E2AE-424B-B9E2-8F13FCDC6322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="135" windowWidth="20025" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="135" windowWidth="20025" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -5478,7 +5478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -7823,7 +7823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
